--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9039145907473309</v>
+        <v>0.3950177935943061</v>
       </c>
       <c r="C2">
-        <v>0.06666666666666667</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="D2">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.06896551724137931</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="F2">
-        <v>0.07042253521126761</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="G2">
-        <v>0.07123287671232877</v>
+        <v>0.6816479400749064</v>
       </c>
       <c r="H2">
-        <v>0.5094970572498663</v>
+        <v>0.7891252006420545</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="K2">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9511278195488722</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.947565543071161</v>
+        <v>0.3632958801498127</v>
       </c>
       <c r="D2">
-        <v>0.949343339587242</v>
+        <v>0.532967032967033</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.06666666666666667</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C3">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.06896551724137931</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9039145907473309</v>
+        <v>0.3950177935943061</v>
       </c>
       <c r="C4">
-        <v>0.9039145907473309</v>
+        <v>0.3950177935943061</v>
       </c>
       <c r="D4">
-        <v>0.9039145907473309</v>
+        <v>0.3950177935943061</v>
       </c>
       <c r="E4">
-        <v>0.9039145907473309</v>
+        <v>0.3950177935943061</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5088972431077694</v>
+        <v>0.5380434782608696</v>
       </c>
       <c r="C5">
-        <v>0.5094970572498663</v>
+        <v>0.6816479400749064</v>
       </c>
       <c r="D5">
-        <v>0.5091544284143107</v>
+        <v>0.3371905871905872</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9070621393341004</v>
+        <v>0.9539687451647842</v>
       </c>
       <c r="C6">
-        <v>0.9039145907473309</v>
+        <v>0.3950177935943061</v>
       </c>
       <c r="D6">
-        <v>0.9054810993280176</v>
+        <v>0.5134590597224049</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
